--- a/datos/personal_medico.xlsx
+++ b/datos/personal_medico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750A475A-AFEC-4F73-AF83-8B5F9D4AD8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC40D13-A3FD-4639-827E-9C6B22004232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="1560" windowWidth="17280" windowHeight="9420" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -515,79 +515,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0FCB3B-D6F2-4934-A8F3-120E2A15EB71}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="K5" sqref="K5:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>65</v>
       </c>
       <c r="C2" s="4">
+        <v>450000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>75</v>
-      </c>
-      <c r="D2" s="4">
-        <v>70</v>
-      </c>
-      <c r="E2" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>450000</v>
       </c>
       <c r="C3" s="4">
         <v>200000</v>
       </c>
       <c r="D3" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4">
         <v>300000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4">
-        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="4">
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>100</v>
       </c>
     </row>

--- a/datos/personal_medico.xlsx
+++ b/datos/personal_medico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC40D13-A3FD-4639-827E-9C6B22004232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A78032D-2A55-4DA9-ACE4-2CB0B0BDBEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
   </bookViews>
@@ -56,17 +56,17 @@
     <t>Capacidad atención (pacientes por día)</t>
   </si>
   <si>
-    <t>Costo x personal(clp)</t>
-  </si>
-  <si>
-    <t>Cantidad requerida de personal (total)</t>
+    <t>costo por dia</t>
+  </si>
+  <si>
+    <t>costo x personal(clp) (estimado 5 días)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0FCB3B-D6F2-4934-A8F3-120E2A15EB71}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +537,7 @@
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -553,10 +562,11 @@
         <v>450000</v>
       </c>
       <c r="D2" s="4">
-        <v>20</v>
+        <f>C2/5</f>
+        <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -567,10 +577,12 @@
         <v>200000</v>
       </c>
       <c r="D3" s="4">
-        <v>20</v>
-      </c>
+        <f t="shared" ref="D3:D5" si="0">C3/5</f>
+        <v>40000</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,10 +593,11 @@
         <v>300000</v>
       </c>
       <c r="D4" s="4">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,7 +608,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/datos/personal_medico.xlsx
+++ b/datos/personal_medico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A78032D-2A55-4DA9-ACE4-2CB0B0BDBEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E68B9-3081-415B-AE64-99E16292828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,29 +42,29 @@
     <t>medico general</t>
   </si>
   <si>
-    <t>paramédicos</t>
-  </si>
-  <si>
     <t>enfermeros</t>
   </si>
   <si>
     <t>voluntarios</t>
   </si>
   <si>
-    <t>Capacidad atención (pacientes por día)</t>
-  </si>
-  <si>
     <t>costo por dia</t>
   </si>
   <si>
     <t>costo x personal(clp) (estimado 5 días)</t>
+  </si>
+  <si>
+    <t>paramedicos</t>
+  </si>
+  <si>
+    <t>Capacidad atencion (pacientes por día)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,31 +525,31 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="40.200000000000003" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.4" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -566,9 +564,9 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.4" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>75</v>
@@ -582,9 +580,9 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.4" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>70</v>
@@ -597,9 +595,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.4" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>

--- a/datos/personal_medico.xlsx
+++ b/datos/personal_medico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E68B9-3081-415B-AE64-99E16292828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ECCC2B-6066-402E-B7E1-E697CC7D5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,17 +525,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" thickBot="1">
+    <row r="1" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,58 +549,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4">
-        <v>450000</v>
+        <v>760000</v>
       </c>
       <c r="D2" s="4">
         <f>C2/5</f>
-        <v>90000</v>
+        <v>152000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
-        <v>200000</v>
+        <v>175000</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D5" si="0">C3/5</f>
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="14.4" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" thickBot="1">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -611,6 +611,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B5">
+    <sortCondition descending="1" ref="B2:B5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datos/personal_medico.xlsx
+++ b/datos/personal_medico.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ECCC2B-6066-402E-B7E1-E697CC7D5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{16ECCC2B-6066-402E-B7E1-E697CC7D5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0AB716-CE50-4BCA-85AF-29115ED67675}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,37 +36,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Personal médico</t>
   </si>
   <si>
-    <t>medico general</t>
+    <t>Capacidad atencion (pacientes por día)</t>
   </si>
   <si>
-    <t>enfermeros</t>
-  </si>
-  <si>
-    <t>voluntarios</t>
+    <t>costo x personal(clp) (estimado 5 días)</t>
   </si>
   <si>
     <t>costo por dia</t>
   </si>
   <si>
-    <t>costo x personal(clp) (estimado 5 días)</t>
-  </si>
-  <si>
     <t>paramedicos</t>
   </si>
   <si>
-    <t>Capacidad atencion (pacientes por día)</t>
+    <t>voluntarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,97 +518,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0FCB3B-D6F2-4934-A8F3-120E2A15EB71}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="54" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4">
+        <v>175000</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D3" si="0">C2/5</f>
+        <v>35000</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4">
-        <v>760000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>C2/5</f>
-        <v>152000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>24</v>
-      </c>
       <c r="C3" s="4">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="0">C3/5</f>
-        <v>35000</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4">
-        <v>350000</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:22" ht="15"/>
+    <row r="5" spans="1:22" ht="15">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="15">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" ht="15">
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" ht="15">
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" ht="15">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="15">
+      <c r="R10" s="5"/>
+    </row>
+    <row r="12" spans="1:22" ht="15">
+      <c r="R12" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B5">
-    <sortCondition descending="1" ref="B2:B5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B3">
+    <sortCondition descending="1" ref="B2:B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/personal_medico.xlsx
+++ b/datos/personal_medico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{16ECCC2B-6066-402E-B7E1-E697CC7D5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0AB716-CE50-4BCA-85AF-29115ED67675}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003133BC-0953-4BFD-8732-B8912DE9C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CBA372C0-7995-4313-AA00-EFE1CC424206}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,17 +521,17 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="54" thickBot="1">
+    <row r="1" spans="1:22" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -561,7 +561,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -576,26 +576,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15"/>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:22" ht="15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" ht="15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R10" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R12" s="5"/>
     </row>
   </sheetData>
@@ -603,5 +604,6 @@
     <sortCondition descending="1" ref="B2:B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>